--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724019.5424477846</v>
+        <v>719853.0094461563</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33932413.92211566</v>
+        <v>33932413.92211567</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747056</v>
+        <v>6528279.443747057</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>259.5412348801192</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>194.2982527369208</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>141.0502484288691</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>208.8564255271583</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>99.32854965762644</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>170.4956504685093</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>88.75280557702739</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>22.71789427119354</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>136.0829573912419</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1852,16 +1852,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>36.87945974316705</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>94.48222241505077</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>98.42472646286382</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.22909826824787</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,10 +2089,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>42.01563427930009</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>26.70110018160128</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>74.4281100935485</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2320,10 +2320,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>64.84964918718899</v>
+        <v>158.6698724908578</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659123</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>193.003853292533</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U25" t="n">
         <v>275.6010546203353</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.39351054073828</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>72.15548182004838</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0624000411058</v>
+        <v>4.113356111125311</v>
       </c>
       <c r="H28" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453885</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.6907226285777</v>
@@ -2775,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>175.0195521806929</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>151.7485255557116</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
-        <v>242.0706706342957</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659123</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453885</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.7737388081187</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U31" t="n">
         <v>275.6010546203353</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.4377336227562</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U32" t="n">
-        <v>71.04656809378835</v>
+        <v>135.3205940364549</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>9.111379781790104</v>
       </c>
       <c r="E34" t="n">
-        <v>70.5267210315475</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3207,7 +3207,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453885</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U34" t="n">
         <v>275.6010546203353</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
-        <v>5.109585697085196</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.995998021488981</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0624000411058</v>
+        <v>84.05485581874183</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>61.52099607453885</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U37" t="n">
         <v>275.6010546203353</v>
       </c>
       <c r="V37" t="n">
-        <v>239.5896549561757</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.7135521266384</v>
+        <v>203.6025123001369</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0624000411058</v>
@@ -3681,7 +3681,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4356049655858</v>
+        <v>29.94145325142707</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>49.68791548285435</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
-        <v>52.23655879186006</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.74730220548736</v>
       </c>
       <c r="T41" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.10069596163103</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.140246927695046</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352.2453937924805</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>214.3502886232769</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>55.56627199761247</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453885</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>134.8550812659126</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U46" t="n">
         <v>275.6010546203353</v>
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>23.55833427601031</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>38.70199365651513</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M9" t="n">
-        <v>56.37392987329654</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N9" t="n">
-        <v>74.51358965724877</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>91.1078344893717</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
-        <v>104.4261789416173</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,22 +4913,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D10" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
         <v>45.03752655443588</v>
@@ -4962,52 +4962,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>48.34104778508073</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>57.03429022422174</v>
+        <v>93.80214871704736</v>
       </c>
       <c r="M10" t="n">
-        <v>66.20009549376488</v>
+        <v>102.9679539865905</v>
       </c>
       <c r="N10" t="n">
-        <v>75.14795840058038</v>
+        <v>111.915816893406</v>
       </c>
       <c r="O10" t="n">
-        <v>116.0498114176325</v>
+        <v>120.1806165414288</v>
       </c>
       <c r="P10" t="n">
-        <v>156.9516644346845</v>
+        <v>127.2525804285715</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>81.79535956884203</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>81.79535956884203</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>45.03752655443588</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>45.03752655443588</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443588</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1178.570277437541</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C11" t="n">
-        <v>1178.570277437541</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.570277437541</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
         <v>316.9281030050443</v>
@@ -5035,13 +5035,13 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228014</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.01926465316</v>
+        <v>1911.82909478122</v>
       </c>
       <c r="V11" t="n">
-        <v>1849.01926465316</v>
+        <v>1549.212144715047</v>
       </c>
       <c r="W11" t="n">
-        <v>1849.01926465316</v>
+        <v>1144.35669012608</v>
       </c>
       <c r="X11" t="n">
-        <v>1849.01926465316</v>
+        <v>725.214226705391</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.733140952813</v>
+        <v>316.9281030050443</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5114,16 +5114,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.5338374743685</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="C13" t="n">
-        <v>749.9721259575934</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D13" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>992.6864461505235</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.772126879247</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.772126879247</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1114.352456193356</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1152.340579151123</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="C14" t="n">
-        <v>1152.340579151123</v>
+        <v>583.448204715547</v>
       </c>
       <c r="D14" t="n">
-        <v>716.4307943255671</v>
+        <v>147.5384198899915</v>
       </c>
       <c r="E14" t="n">
-        <v>716.4307943255671</v>
+        <v>147.5384198899915</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>147.5384198899915</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W14" t="n">
-        <v>1743.700871327882</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X14" t="n">
-        <v>1324.558407907193</v>
+        <v>1429.87680123247</v>
       </c>
       <c r="Y14" t="n">
-        <v>1152.340579151123</v>
+        <v>1021.590677532124</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>750.041858240633</v>
+        <v>843.5014354710329</v>
       </c>
       <c r="C16" t="n">
-        <v>577.480146723858</v>
+        <v>843.5014354710329</v>
       </c>
       <c r="D16" t="n">
-        <v>411.6021539253807</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>411.6021539253807</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>234.8950998871369</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>70.15391949965527</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>70.15391949965527</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092375</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827552</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789086</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725808</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645512</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y16" t="n">
-        <v>941.8604769596202</v>
+        <v>1035.32005419002</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958.5107887296396</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C17" t="n">
-        <v>520.3683159130628</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D17" t="n">
-        <v>84.45853108750731</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E17" t="n">
-        <v>84.45853108750731</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>84.45853108750731</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>84.45853108750731</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5530,7 +5530,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>1785.939375850675</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1785.939375850675</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X17" t="n">
-        <v>1366.796912429986</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y17" t="n">
-        <v>958.5107887296396</v>
+        <v>2319.861207662533</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>617.6280653369093</v>
+        <v>992.2890823372263</v>
       </c>
       <c r="C19" t="n">
-        <v>617.6280653369093</v>
+        <v>819.7273708204513</v>
       </c>
       <c r="D19" t="n">
-        <v>451.7500725384321</v>
+        <v>653.849378021974</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7500725384321</v>
+        <v>484.0913742727112</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>307.3843202344674</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>142.6431398469858</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1656.919126408693</v>
       </c>
       <c r="X19" t="n">
-        <v>1036.866354741788</v>
+        <v>1411.527371742105</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.4466840558964</v>
+        <v>1184.107701056214</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2024.257796809404</v>
+        <v>2018.350481558492</v>
       </c>
       <c r="C20" t="n">
-        <v>1586.115323992828</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="D20" t="n">
-        <v>1150.205539167272</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E20" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F20" t="n">
         <v>716.4307943255671</v>
@@ -5746,28 +5746,28 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2277.421173036978</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.256885969251</v>
+        <v>2018.350481558492</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.256885969251</v>
+        <v>2018.350481558492</v>
       </c>
       <c r="W20" t="n">
-        <v>2101.256885969251</v>
+        <v>2018.350481558492</v>
       </c>
       <c r="X20" t="n">
-        <v>2101.256885969251</v>
+        <v>2018.350481558492</v>
       </c>
       <c r="Y20" t="n">
-        <v>2101.256885969251</v>
+        <v>2018.350481558492</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,31 +5822,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C22" t="n">
-        <v>299.0935147726011</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="D22" t="n">
-        <v>299.0935147726011</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>828.1746199579902</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675981</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>890.893515694255</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>884.3082211209526</v>
+        <v>1155.539047792922</v>
       </c>
       <c r="C23" t="n">
-        <v>884.3082211209526</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="D23" t="n">
-        <v>448.3984362953971</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="E23" t="n">
-        <v>448.3984362953971</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="F23" t="n">
-        <v>448.3984362953971</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="G23" t="n">
-        <v>48.96638213099692</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882624</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J23" t="n">
         <v>286.3580891786135</v>
@@ -5995,7 +5995,7 @@
         <v>531.4362430141192</v>
       </c>
       <c r="L23" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M23" t="n">
         <v>1173.781693844502</v>
@@ -6004,10 +6004,10 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q23" t="n">
         <v>2327.293660516458</v>
@@ -6016,25 +6016,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T23" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U23" t="n">
-        <v>2189.254066043849</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V23" t="n">
-        <v>2189.254066043849</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="W23" t="n">
-        <v>1784.398611454883</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="X23" t="n">
-        <v>1718.893915306207</v>
+        <v>1990.124741978177</v>
       </c>
       <c r="Y23" t="n">
-        <v>1310.60779160586</v>
+        <v>1581.83861827783</v>
       </c>
     </row>
     <row r="24">
@@ -6047,46 +6047,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C24" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D24" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E24" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F24" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G24" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H24" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I24" t="n">
-        <v>84.45847150237343</v>
+        <v>84.45847150237344</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578922240946</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K24" t="n">
-        <v>286.3180520184856</v>
+        <v>348.3116373029837</v>
       </c>
       <c r="L24" t="n">
-        <v>510.1442793216696</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M24" t="n">
-        <v>771.3389293833792</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N24" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P24" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q24" t="n">
         <v>1613.147991278647</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>751.3688591140225</v>
+        <v>704.2104052392303</v>
       </c>
       <c r="C25" t="n">
-        <v>578.8071475972474</v>
+        <v>531.6486937224553</v>
       </c>
       <c r="D25" t="n">
-        <v>412.9291547987701</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E25" t="n">
-        <v>243.1711510495074</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F25" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G25" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H25" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J25" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K25" t="n">
-        <v>571.8138742903014</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.511567973113</v>
+        <v>757.1734282372875</v>
       </c>
       <c r="M25" t="n">
-        <v>1253.983950316745</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.235102203909</v>
+        <v>1926.639632806642</v>
       </c>
       <c r="O25" t="n">
-        <v>1737.859313719486</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q25" t="n">
         <v>2430.451674572189</v>
@@ -6177,22 +6177,22 @@
         <v>2448.319106549846</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.365719385671</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U25" t="n">
-        <v>1974.980815728767</v>
+        <v>1927.822361853975</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.025307599197</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.998903185489</v>
+        <v>1368.840449310697</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.607148518901</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y25" t="n">
-        <v>943.1874778330096</v>
+        <v>896.0290239582175</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1579.038749408843</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.038749408843</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="D26" t="n">
-        <v>1579.038749408843</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="E26" t="n">
-        <v>1145.264004567138</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F26" t="n">
-        <v>717.3965749763458</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I26" t="n">
-        <v>122.8353788882624</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L26" t="n">
-        <v>835.4773641398451</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M26" t="n">
         <v>1173.781693844502</v>
@@ -6241,10 +6241,10 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q26" t="n">
         <v>2327.293660516458</v>
@@ -6253,25 +6253,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S26" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T26" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U26" t="n">
-        <v>2448.319106549846</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V26" t="n">
-        <v>2085.702156483673</v>
+        <v>1787.780390387617</v>
       </c>
       <c r="W26" t="n">
-        <v>2085.702156483673</v>
+        <v>1382.92493579865</v>
       </c>
       <c r="X26" t="n">
-        <v>2085.702156483673</v>
+        <v>1382.92493579865</v>
       </c>
       <c r="Y26" t="n">
-        <v>1677.416032783326</v>
+        <v>1310.040610727894</v>
       </c>
     </row>
     <row r="27">
@@ -6284,37 +6284,37 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D27" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G27" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H27" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I27" t="n">
-        <v>84.45847150237344</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J27" t="n">
-        <v>181.8514775085928</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K27" t="n">
-        <v>348.3116373029837</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L27" t="n">
         <v>572.1378646061677</v>
       </c>
       <c r="M27" t="n">
-        <v>833.3325146678773</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N27" t="n">
         <v>1039.446624623284</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.785408143282</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C28" t="n">
-        <v>920.2236966265071</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D28" t="n">
-        <v>754.3457038280299</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="E28" t="n">
-        <v>584.5877000787672</v>
+        <v>361.8906899731921</v>
       </c>
       <c r="F28" t="n">
-        <v>407.8806460405234</v>
+        <v>185.1836359349483</v>
       </c>
       <c r="G28" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J28" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K28" t="n">
-        <v>571.8138742903014</v>
+        <v>297.0554197191659</v>
       </c>
       <c r="L28" t="n">
-        <v>700.3016862051519</v>
+        <v>425.5432316340162</v>
       </c>
       <c r="M28" t="n">
-        <v>835.7740685487843</v>
+        <v>1020.499481158561</v>
       </c>
       <c r="N28" t="n">
-        <v>1196.034720256692</v>
+        <v>1595.00943620337</v>
       </c>
       <c r="O28" t="n">
-        <v>1737.859313719486</v>
+        <v>2136.834029666164</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.891207672411</v>
+        <v>2241.359029648747</v>
       </c>
       <c r="Q28" t="n">
         <v>2430.451674572189</v>
@@ -6411,25 +6411,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.332917060792</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.948013403888</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.992505274318</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.992505274318</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X28" t="n">
-        <v>1320.205078829174</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y28" t="n">
-        <v>1092.785408143282</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1784.660814205626</v>
+        <v>1337.255762164478</v>
       </c>
       <c r="C29" t="n">
-        <v>1346.51834138905</v>
+        <v>899.1132893479012</v>
       </c>
       <c r="D29" t="n">
-        <v>910.6085565634939</v>
+        <v>899.1132893479012</v>
       </c>
       <c r="E29" t="n">
-        <v>476.8338117217892</v>
+        <v>899.1132893479012</v>
       </c>
       <c r="F29" t="n">
-        <v>48.96638213099693</v>
+        <v>471.2458597571089</v>
       </c>
       <c r="G29" t="n">
-        <v>48.96638213099693</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H29" t="n">
         <v>48.96638213099693</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8353788882624</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J29" t="n">
         <v>286.3580891786135</v>
@@ -6490,25 +6490,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S29" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T29" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U29" t="n">
-        <v>2448.319106549846</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V29" t="n">
-        <v>2203.803277626315</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="W29" t="n">
-        <v>2203.803277626315</v>
+        <v>1745.541885864824</v>
       </c>
       <c r="X29" t="n">
-        <v>1784.660814205626</v>
+        <v>1745.541885864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>1784.660814205626</v>
+        <v>1337.255762164478</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>48.96638213099693</v>
       </c>
       <c r="I30" t="n">
-        <v>48.96638213099693</v>
+        <v>84.45847150237344</v>
       </c>
       <c r="J30" t="n">
-        <v>146.3593881372162</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K30" t="n">
-        <v>286.3180520184854</v>
+        <v>348.3116373029837</v>
       </c>
       <c r="L30" t="n">
-        <v>510.1442793216694</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M30" t="n">
-        <v>771.3389293833791</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N30" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O30" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P30" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q30" t="n">
         <v>1613.147991278647</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>928.0759131522664</v>
+        <v>704.2104052392303</v>
       </c>
       <c r="C31" t="n">
-        <v>755.5142016354913</v>
+        <v>531.6486937224553</v>
       </c>
       <c r="D31" t="n">
-        <v>589.636208837014</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E31" t="n">
-        <v>419.8782050877512</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F31" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G31" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I31" t="n">
         <v>48.96638213099693</v>
       </c>
       <c r="J31" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K31" t="n">
-        <v>297.055419719166</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L31" t="n">
-        <v>446.23776491312</v>
+        <v>654.2451577325841</v>
       </c>
       <c r="M31" t="n">
-        <v>1041.194014437665</v>
+        <v>789.7175400762164</v>
       </c>
       <c r="N31" t="n">
-        <v>1615.703969482474</v>
+        <v>1364.227495121025</v>
       </c>
       <c r="O31" t="n">
-        <v>1737.859313719486</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q31" t="n">
         <v>2430.451674572189</v>
@@ -6648,25 +6648,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S31" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T31" t="n">
-        <v>2202.653102738023</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U31" t="n">
-        <v>1924.268199081119</v>
+        <v>1927.822361853975</v>
       </c>
       <c r="V31" t="n">
-        <v>1637.312690951549</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W31" t="n">
-        <v>1365.286286537841</v>
+        <v>1368.840449310697</v>
       </c>
       <c r="X31" t="n">
-        <v>1119.894531871254</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y31" t="n">
-        <v>1119.894531871254</v>
+        <v>896.0290239582175</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1745.95039555345</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="C32" t="n">
-        <v>1745.95039555345</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="D32" t="n">
-        <v>1310.040610727894</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="E32" t="n">
-        <v>876.2658658861894</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="F32" t="n">
         <v>448.3984362953971</v>
@@ -6697,7 +6697,7 @@
         <v>48.96638213099693</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J32" t="n">
         <v>286.3580891786135</v>
@@ -6706,13 +6706,13 @@
         <v>531.4362430141192</v>
       </c>
       <c r="L32" t="n">
-        <v>835.4773641398452</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M32" t="n">
         <v>1173.781693844502</v>
       </c>
       <c r="N32" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O32" t="n">
         <v>1842.180380803856</v>
@@ -6727,25 +6727,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T32" t="n">
-        <v>2236.857069169885</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U32" t="n">
-        <v>2165.092858974139</v>
+        <v>2061.312874856134</v>
       </c>
       <c r="V32" t="n">
-        <v>2165.092858974139</v>
+        <v>1698.695924789961</v>
       </c>
       <c r="W32" t="n">
-        <v>2165.092858974139</v>
+        <v>1293.840470200994</v>
       </c>
       <c r="X32" t="n">
-        <v>1745.95039555345</v>
+        <v>874.6980067803049</v>
       </c>
       <c r="Y32" t="n">
-        <v>1745.95039555345</v>
+        <v>874.6980067803049</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>572.1378646061677</v>
       </c>
       <c r="M33" t="n">
-        <v>771.3389293833791</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N33" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P33" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
         <v>1613.147991278647</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>994.2665165470978</v>
+        <v>704.2104052392303</v>
       </c>
       <c r="C34" t="n">
-        <v>821.7048050303227</v>
+        <v>531.6486937224553</v>
       </c>
       <c r="D34" t="n">
-        <v>655.8268122318455</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="E34" t="n">
-        <v>584.5877000787672</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F34" t="n">
-        <v>407.8806460405234</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G34" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I34" t="n">
         <v>48.96638213099693</v>
       </c>
       <c r="J34" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K34" t="n">
-        <v>297.055419719166</v>
+        <v>381.6134923430849</v>
       </c>
       <c r="L34" t="n">
-        <v>425.5432316340163</v>
+        <v>928.3111860258963</v>
       </c>
       <c r="M34" t="n">
-        <v>1020.499481158562</v>
+        <v>1063.783568369529</v>
       </c>
       <c r="N34" t="n">
-        <v>1595.00943620337</v>
+        <v>1196.034720256692</v>
       </c>
       <c r="O34" t="n">
         <v>1737.859313719486</v>
@@ -6885,25 +6885,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S34" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T34" t="n">
-        <v>2304.444758099759</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U34" t="n">
-        <v>2026.059854442855</v>
+        <v>1927.822361853975</v>
       </c>
       <c r="V34" t="n">
-        <v>1739.104346313286</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W34" t="n">
-        <v>1467.077941899577</v>
+        <v>1368.840449310697</v>
       </c>
       <c r="X34" t="n">
-        <v>1221.68618723299</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y34" t="n">
-        <v>994.2665165470978</v>
+        <v>896.0290239582175</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2189.25406604385</v>
+        <v>1312.175650711745</v>
       </c>
       <c r="C35" t="n">
-        <v>1751.111593227273</v>
+        <v>1312.175650711745</v>
       </c>
       <c r="D35" t="n">
-        <v>1315.201808401718</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="E35" t="n">
-        <v>881.4270635600128</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F35" t="n">
-        <v>453.5596339692206</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G35" t="n">
-        <v>54.12757980482036</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8353788882622</v>
+        <v>122.835378888262</v>
       </c>
       <c r="J35" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786131</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141188</v>
       </c>
       <c r="L35" t="n">
-        <v>835.4773641398451</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N35" t="n">
         <v>1517.560141290067</v>
       </c>
       <c r="O35" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P35" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q35" t="n">
         <v>2327.293660516458</v>
@@ -6964,25 +6964,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S35" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T35" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U35" t="n">
-        <v>2189.25406604385</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V35" t="n">
-        <v>2189.25406604385</v>
+        <v>2143.33067578562</v>
       </c>
       <c r="W35" t="n">
-        <v>2189.25406604385</v>
+        <v>1738.475221196653</v>
       </c>
       <c r="X35" t="n">
-        <v>2189.25406604385</v>
+        <v>1738.475221196653</v>
       </c>
       <c r="Y35" t="n">
-        <v>2189.25406604385</v>
+        <v>1738.475221196653</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C36" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D36" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E36" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F36" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G36" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H36" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I36" t="n">
-        <v>84.45847150237344</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J36" t="n">
         <v>181.8514775085928</v>
@@ -7031,7 +7031,7 @@
         <v>1101.440209907782</v>
       </c>
       <c r="O36" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P36" t="n">
         <v>1481.560504773609</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.785408143282</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C37" t="n">
-        <v>920.2236966265071</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D37" t="n">
-        <v>754.3457038280299</v>
+        <v>365.7707009239775</v>
       </c>
       <c r="E37" t="n">
-        <v>584.5877000787672</v>
+        <v>196.0126971747148</v>
       </c>
       <c r="F37" t="n">
-        <v>407.8806460405234</v>
+        <v>196.0126971747148</v>
       </c>
       <c r="G37" t="n">
-        <v>243.1711510495074</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="H37" t="n">
         <v>111.1088024083089</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K37" t="n">
-        <v>571.8138742903014</v>
+        <v>485.2341891256116</v>
       </c>
       <c r="L37" t="n">
-        <v>1118.511567973113</v>
+        <v>613.722001040462</v>
       </c>
       <c r="M37" t="n">
-        <v>1253.983950316745</v>
+        <v>1208.678250565008</v>
       </c>
       <c r="N37" t="n">
-        <v>1615.703969482474</v>
+        <v>1783.188205609816</v>
       </c>
       <c r="O37" t="n">
-        <v>1737.859313719486</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q37" t="n">
         <v>2430.451674572189</v>
@@ -7122,25 +7122,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S37" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T37" t="n">
-        <v>2304.444758099759</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U37" t="n">
-        <v>2026.059854442855</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V37" t="n">
-        <v>1784.05010196187</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W37" t="n">
-        <v>1512.023697548161</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X37" t="n">
-        <v>1512.023697548161</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.604026862269</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2053.658952886575</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C38" t="n">
-        <v>1615.516480069998</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D38" t="n">
-        <v>1179.606695244443</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E38" t="n">
-        <v>745.8319504027379</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F38" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G38" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H38" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882622</v>
+        <v>122.835378888262</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786133</v>
+        <v>286.3580891786131</v>
       </c>
       <c r="K38" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141188</v>
       </c>
       <c r="L38" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N38" t="n">
         <v>1517.560141290067</v>
       </c>
       <c r="O38" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P38" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q38" t="n">
         <v>2327.293660516458</v>
@@ -7201,25 +7201,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S38" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T38" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U38" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V38" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W38" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X38" t="n">
-        <v>2448.319106549846</v>
+        <v>1990.319917539098</v>
       </c>
       <c r="Y38" t="n">
-        <v>2448.319106549846</v>
+        <v>1990.319917539098</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C39" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D39" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E39" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F39" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G39" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H39" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I39" t="n">
-        <v>84.45847150237344</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J39" t="n">
         <v>181.8514775085928</v>
@@ -7262,13 +7262,13 @@
         <v>572.1378646061677</v>
       </c>
       <c r="M39" t="n">
-        <v>771.3389293833791</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N39" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O39" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P39" t="n">
         <v>1481.560504773609</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1030.64298786597</v>
+        <v>916.0783541050384</v>
       </c>
       <c r="C40" t="n">
-        <v>858.0812763491953</v>
+        <v>743.5166425882634</v>
       </c>
       <c r="D40" t="n">
-        <v>692.203283550718</v>
+        <v>577.6386497897861</v>
       </c>
       <c r="E40" t="n">
-        <v>522.4452798014552</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="F40" t="n">
-        <v>345.7382257632114</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G40" t="n">
-        <v>181.0287307721954</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H40" t="n">
-        <v>48.96638213099693</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I40" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J40" t="n">
         <v>110.0676242284527</v>
       </c>
       <c r="K40" t="n">
-        <v>485.2341891256116</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L40" t="n">
-        <v>1031.931882808423</v>
+        <v>654.2451577325836</v>
       </c>
       <c r="M40" t="n">
-        <v>1167.404265152055</v>
+        <v>789.717540076216</v>
       </c>
       <c r="N40" t="n">
-        <v>1299.655417039219</v>
+        <v>1364.227495121025</v>
       </c>
       <c r="O40" t="n">
-        <v>1737.859313719486</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q40" t="n">
         <v>2430.451674572189</v>
@@ -7359,25 +7359,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.444758099759</v>
+        <v>2418.075214376687</v>
       </c>
       <c r="T40" t="n">
-        <v>2304.444758099759</v>
+        <v>2418.075214376687</v>
       </c>
       <c r="U40" t="n">
-        <v>2254.254944480715</v>
+        <v>2139.690310719783</v>
       </c>
       <c r="V40" t="n">
-        <v>1967.299436351145</v>
+        <v>1852.734802590213</v>
       </c>
       <c r="W40" t="n">
-        <v>1695.273031937437</v>
+        <v>1580.708398176505</v>
       </c>
       <c r="X40" t="n">
-        <v>1449.881277270849</v>
+        <v>1335.316643509917</v>
       </c>
       <c r="Y40" t="n">
-        <v>1222.461606584958</v>
+        <v>1107.896972824026</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2236.857069169885</v>
+        <v>1756.225438779234</v>
       </c>
       <c r="C41" t="n">
-        <v>1798.714596353308</v>
+        <v>1318.082965962657</v>
       </c>
       <c r="D41" t="n">
-        <v>1362.804811527753</v>
+        <v>882.1731811371019</v>
       </c>
       <c r="E41" t="n">
-        <v>929.030066686048</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="F41" t="n">
-        <v>501.1626370952558</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G41" t="n">
-        <v>101.7305829308556</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H41" t="n">
         <v>48.96638213099693</v>
@@ -7438,25 +7438,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S41" t="n">
-        <v>2448.319106549846</v>
+        <v>2434.43294270592</v>
       </c>
       <c r="T41" t="n">
-        <v>2236.857069169885</v>
+        <v>2434.43294270592</v>
       </c>
       <c r="U41" t="n">
-        <v>2236.857069169885</v>
+        <v>2175.367902199923</v>
       </c>
       <c r="V41" t="n">
-        <v>2236.857069169885</v>
+        <v>2175.367902199923</v>
       </c>
       <c r="W41" t="n">
-        <v>2236.857069169885</v>
+        <v>2175.367902199923</v>
       </c>
       <c r="X41" t="n">
-        <v>2236.857069169885</v>
+        <v>1756.225438779234</v>
       </c>
       <c r="Y41" t="n">
-        <v>2236.857069169885</v>
+        <v>1756.225438779234</v>
       </c>
     </row>
     <row r="42">
@@ -7508,7 +7508,7 @@
         <v>1346.70637196244</v>
       </c>
       <c r="P42" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q42" t="n">
         <v>1613.147991278647</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.1546755081306</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="C43" t="n">
-        <v>579.5929639913555</v>
+        <v>387.7743452723684</v>
       </c>
       <c r="D43" t="n">
-        <v>413.7149711928782</v>
+        <v>221.896352473891</v>
       </c>
       <c r="E43" t="n">
-        <v>243.9569674436155</v>
+        <v>52.13834872462829</v>
       </c>
       <c r="F43" t="n">
-        <v>67.2499134053717</v>
+        <v>52.13834872462829</v>
       </c>
       <c r="G43" t="n">
-        <v>48.96638213099693</v>
+        <v>52.13834872462829</v>
       </c>
       <c r="H43" t="n">
-        <v>48.96638213099693</v>
+        <v>52.13834872462829</v>
       </c>
       <c r="I43" t="n">
         <v>48.96638213099693</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K43" t="n">
-        <v>571.8138742903014</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L43" t="n">
-        <v>1118.511567973113</v>
+        <v>542.2681845220129</v>
       </c>
       <c r="M43" t="n">
-        <v>1713.467817497658</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N43" t="n">
-        <v>1845.718969384822</v>
+        <v>1711.734389091367</v>
       </c>
       <c r="O43" t="n">
-        <v>1967.874313621834</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q43" t="n">
         <v>2430.451674572189</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2053.658952886575</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C44" t="n">
-        <v>1615.516480069998</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D44" t="n">
-        <v>1179.606695244443</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E44" t="n">
-        <v>745.8319504027379</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F44" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H44" t="n">
         <v>48.96638213099693</v>
@@ -7681,19 +7681,19 @@
         <v>2409.462380959788</v>
       </c>
       <c r="U44" t="n">
-        <v>2409.462380959788</v>
+        <v>2192.946937905973</v>
       </c>
       <c r="V44" t="n">
-        <v>2409.462380959788</v>
+        <v>2192.946937905973</v>
       </c>
       <c r="W44" t="n">
-        <v>2409.462380959788</v>
+        <v>2192.946937905973</v>
       </c>
       <c r="X44" t="n">
-        <v>2409.462380959788</v>
+        <v>2192.946937905973</v>
       </c>
       <c r="Y44" t="n">
-        <v>2409.462380959788</v>
+        <v>1784.660814205626</v>
       </c>
     </row>
     <row r="45">
@@ -7739,16 +7739,16 @@
         <v>833.3325146678775</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.440209907783</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O45" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P45" t="n">
-        <v>1543.554090058108</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q45" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R45" t="n">
         <v>1677.151305564151</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.4478978281115</v>
+        <v>567.9931514352786</v>
       </c>
       <c r="C46" t="n">
-        <v>629.8861863113365</v>
+        <v>395.4314399185035</v>
       </c>
       <c r="D46" t="n">
-        <v>464.0081935128592</v>
+        <v>395.4314399185035</v>
       </c>
       <c r="E46" t="n">
-        <v>464.0081935128592</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8806460405233</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G46" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I46" t="n">
         <v>48.96638213099693</v>
       </c>
       <c r="J46" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K46" t="n">
-        <v>341.7988743879536</v>
+        <v>485.2341891256116</v>
       </c>
       <c r="L46" t="n">
-        <v>888.496568070765</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M46" t="n">
-        <v>1483.45281759531</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N46" t="n">
-        <v>1615.703969482474</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O46" t="n">
-        <v>1737.859313719486</v>
+        <v>1841.480010502013</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.891207672412</v>
+        <v>2293.511904454938</v>
       </c>
       <c r="Q46" t="n">
         <v>2430.45167457219</v>
@@ -7833,25 +7833,25 @@
         <v>2448.319106549847</v>
       </c>
       <c r="S46" t="n">
-        <v>2304.44475809976</v>
+        <v>2312.101852745895</v>
       </c>
       <c r="T46" t="n">
-        <v>2304.44475809976</v>
+        <v>2069.990011706927</v>
       </c>
       <c r="U46" t="n">
-        <v>2026.059854442856</v>
+        <v>1791.605108050023</v>
       </c>
       <c r="V46" t="n">
-        <v>1739.104346313286</v>
+        <v>1504.649599920454</v>
       </c>
       <c r="W46" t="n">
-        <v>1467.077941899578</v>
+        <v>1232.623195506745</v>
       </c>
       <c r="X46" t="n">
-        <v>1221.686187232991</v>
+        <v>987.2314408401576</v>
       </c>
       <c r="Y46" t="n">
-        <v>994.2665165470987</v>
+        <v>759.8117701542658</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.14042390876192</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.94091896479665</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778792</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477707</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>34.17160518172662</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4465520488788</v>
+        <v>33.44562680252832</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>175.7179764032066</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>70.05088382580925</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>69.27619576520578</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>177.1920849464598</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>228.922270656425</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>444.9969971592897</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>231.7867346248127</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>230.3126260815601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>117.9039928161578</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>20.90356896879155</v>
+        <v>318.4662740032906</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>172.8664220086958</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>20.90356896879143</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>231.7867346248129</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>351.7327603104361</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>318.4662740032901</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>319.2409620638934</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>205.3582202552388</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>118.6786808767611</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>45.19540875635113</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>65.22432129475374</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.4953398999394</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23266,10 +23266,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>62.18173182678035</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>48.85018410292815</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>60.4497148424131</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>296.1791147496912</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.7076119948338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>75.46640729346514</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.74643942692089</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>285.9536173888168</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>230.1448761983616</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>36.53839759942649</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>144.5131106570578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>345.8074765118108</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>167.6379047362788</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>144.134994220006</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>93.63231361822162</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415826</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.3474170061614</v>
@@ -24268,10 +24268,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>350.1013895992934</v>
+        <v>256.2811662956246</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>29.36413160458019</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T25" t="n">
-        <v>46.68686933604471</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>324.6430642393204</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>332.0477806432947</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>158.9490439299805</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>67.91828493922878</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4377336227562</v>
+        <v>243.6892080670446</v>
       </c>
       <c r="H29" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>116.9201099312161</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>29.36413160458019</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T31" t="n">
-        <v>138.916983820459</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>185.4278220071479</v>
+        <v>121.1537960644814</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>155.1078330887024</v>
       </c>
       <c r="E34" t="n">
-        <v>97.53370268022262</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>261.1985715970541</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.3474170061614</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>351.9947825440228</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>79.00754422236395</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T37" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>44.49629809209819</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.32302265342031</v>
+        <v>218.4340624799218</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.3474170061614</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.52099607453885</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>112.4941517141587</v>
       </c>
       <c r="T40" t="n">
         <v>239.6907226285777</v>
       </c>
       <c r="U40" t="n">
-        <v>225.9131391374809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>214.0715985022792</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415825</v>
+        <v>24.7208561286709</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>144.9617040794747</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453885</v>
+        <v>58.3807491468438</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>69.79118098757817</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>42.12410147765939</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>119.3737115002489</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.580523699673165</v>
       </c>
       <c r="T46" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>333312.7334762676</v>
+        <v>333312.7334762675</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>343105.591558177</v>
+        <v>343105.5915581769</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>343105.591558177</v>
+        <v>343105.5915581771</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>343105.591558177</v>
+        <v>343105.5915581769</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>343105.591558177</v>
+        <v>343105.5915581771</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343105.591558177</v>
+        <v>343105.5915581771</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>235946.3569512259</v>
+        <v>235946.356951226</v>
       </c>
       <c r="F2" t="n">
         <v>235946.3569512259</v>
@@ -26334,7 +26334,7 @@
         <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="J2" t="n">
         <v>242775.0810731975</v>
@@ -26343,16 +26343,16 @@
         <v>242775.0810731976</v>
       </c>
       <c r="L2" t="n">
+        <v>242775.0810731976</v>
+      </c>
+      <c r="M2" t="n">
         <v>242775.0810731975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>242775.0810731975</v>
+      </c>
+      <c r="O2" t="n">
         <v>242775.0810731976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>242775.0810731976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>242775.0810731975</v>
       </c>
       <c r="P2" t="n">
         <v>242775.0810731976</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935667</v>
+        <v>18943.98047935686</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630175</v>
+        <v>10456.45543630176</v>
       </c>
       <c r="M3" t="n">
         <v>136754.9043831154</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294691.6588548442</v>
       </c>
       <c r="E4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="F4" t="n">
         <v>19185.36025012661</v>
       </c>
       <c r="G4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="H4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="I4" t="n">
-        <v>19886.70767725207</v>
+        <v>19886.70767725208</v>
       </c>
       <c r="J4" t="n">
-        <v>19886.70767725207</v>
+        <v>19886.70767725208</v>
       </c>
       <c r="K4" t="n">
         <v>19886.70767725208</v>
@@ -26459,7 +26459,7 @@
         <v>19886.70767725208</v>
       </c>
       <c r="P4" t="n">
-        <v>19886.70767725208</v>
+        <v>19886.70767725209</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
         <v>47767.76961397017</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60180.15835551085</v>
+        <v>60148.25163800923</v>
       </c>
       <c r="C6" t="n">
-        <v>60180.15835551091</v>
+        <v>60148.25163800923</v>
       </c>
       <c r="D6" t="n">
         <v>29681.3667079962</v>
       </c>
       <c r="E6" t="n">
-        <v>-341775.5940645203</v>
+        <v>-342329.4745077421</v>
       </c>
       <c r="F6" t="n">
-        <v>170709.9154914615</v>
+        <v>170156.0350482395</v>
       </c>
       <c r="G6" t="n">
-        <v>170709.9154914615</v>
+        <v>170156.0350482395</v>
       </c>
       <c r="H6" t="n">
-        <v>170709.9154914615</v>
+        <v>170156.0350482396</v>
       </c>
       <c r="I6" t="n">
-        <v>156176.6233026186</v>
+        <v>155645.5052731364</v>
       </c>
       <c r="J6" t="n">
-        <v>175120.6037819753</v>
+        <v>174589.4857524933</v>
       </c>
       <c r="K6" t="n">
-        <v>175120.6037819753</v>
+        <v>174589.4857524933</v>
       </c>
       <c r="L6" t="n">
-        <v>164664.1483456736</v>
+        <v>164133.0303161916</v>
       </c>
       <c r="M6" t="n">
-        <v>38365.69939885994</v>
+        <v>37834.58136937786</v>
       </c>
       <c r="N6" t="n">
-        <v>175120.6037819753</v>
+        <v>174589.4857524933</v>
       </c>
       <c r="O6" t="n">
-        <v>175120.6037819753</v>
+        <v>174589.4857524933</v>
       </c>
       <c r="P6" t="n">
-        <v>175120.6037819754</v>
+        <v>174589.4857524933</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
+        <v>484.0972107528676</v>
+      </c>
+      <c r="J3" t="n">
         <v>484.0972107528675</v>
-      </c>
-      <c r="J3" t="n">
-        <v>484.0972107528676</v>
       </c>
       <c r="K3" t="n">
         <v>484.0972107528676</v>
@@ -26798,22 +26798,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
+        <v>612.0797766374616</v>
+      </c>
+      <c r="J4" t="n">
         <v>612.0797766374615</v>
-      </c>
-      <c r="J4" t="n">
-        <v>612.0797766374616</v>
       </c>
       <c r="K4" t="n">
         <v>612.0797766374616</v>
@@ -26822,10 +26822,10 @@
         <v>612.0797766374616</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374616</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="N4" t="n">
-        <v>612.0797766374616</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="O4" t="n">
         <v>612.0797766374616</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.3952826596464</v>
+        <v>17.39528265964657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552733</v>
+        <v>21.99788227552756</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.3150030475274</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144065</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>45.48263858358116</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>43.14578572036749</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>128.5928940176698</v>
+        <v>92.20263933340772</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>172.0581349818139</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28028,7 +28028,7 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383404</v>
+        <v>96.66302601383403</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>232.9158856853093</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
@@ -32010,28 +32010,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811321</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32253,7 +32253,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
         <v>202.607267687947</v>
@@ -32262,10 +32262,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
         <v>0.150095092452091</v>
@@ -32308,22 +32308,22 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108062</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -32335,7 +32335,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -32344,7 +32344,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356904</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>19.93069571707659</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879368</v>
+        <v>75.02776971879369</v>
       </c>
       <c r="J23" t="n">
         <v>165.1744548387385</v>
@@ -32721,7 +32721,7 @@
         <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157228</v>
       </c>
       <c r="O23" t="n">
         <v>327.8992318321094</v>
@@ -32736,10 +32736,10 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S23" t="n">
-        <v>44.3471967438431</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T23" t="n">
-        <v>8.51913784953036</v>
+        <v>8.519137849530361</v>
       </c>
       <c r="U23" t="n">
         <v>0.1556895552170025</v>
@@ -32788,7 +32788,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>35.7569906280012</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K24" t="n">
         <v>168.1415755498899</v>
@@ -32809,7 +32809,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R24" t="n">
         <v>64.64981240959996</v>
@@ -32821,7 +32821,7 @@
         <v>4.197031478130992</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0685043222763492</v>
+        <v>0.06850432227634921</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.872962183324843</v>
+        <v>0.8729621833248431</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742701</v>
+        <v>7.761427411742702</v>
       </c>
       <c r="I25" t="n">
         <v>26.25235365853256</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106639</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K25" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M25" t="n">
         <v>136.8407902460933</v>
@@ -32888,7 +32888,7 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368299</v>
+        <v>73.098678823683</v>
       </c>
       <c r="R25" t="n">
         <v>39.2515541702243</v>
@@ -32943,7 +32943,7 @@
         <v>19.93069571707659</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879369</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J26" t="n">
         <v>165.1744548387385</v>
@@ -32958,7 +32958,7 @@
         <v>341.7215451562189</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157228</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O26" t="n">
         <v>327.8992318321094</v>
@@ -32973,10 +32973,10 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S26" t="n">
-        <v>44.34719674384311</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530361</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U26" t="n">
         <v>0.1556895552170025</v>
@@ -33025,7 +33025,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K27" t="n">
         <v>168.1415755498899</v>
@@ -33034,10 +33034,10 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603128</v>
+        <v>201.2131967446581</v>
       </c>
       <c r="N27" t="n">
-        <v>208.1960706620273</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O27" t="n">
         <v>247.7435980350076</v>
@@ -33058,7 +33058,7 @@
         <v>4.197031478130992</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06850432227634921</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I28" t="n">
         <v>26.25235365853256</v>
       </c>
       <c r="J28" t="n">
-        <v>61.7184263610664</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M28" t="n">
         <v>136.8407902460933</v>
@@ -33125,7 +33125,7 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R28" t="n">
         <v>39.2515541702243</v>
@@ -33259,13 +33259,13 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
         <v>98.37677374365587</v>
       </c>
       <c r="K30" t="n">
-        <v>141.3723877588578</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
         <v>226.0870982860444</v>
@@ -33283,7 +33283,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R30" t="n">
         <v>64.64981240959996</v>
@@ -33508,7 +33508,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>201.213196744658</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
         <v>270.815853777682</v>
@@ -33520,7 +33520,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959996</v>
@@ -33751,10 +33751,10 @@
         <v>270.815853777682</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350076</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P36" t="n">
-        <v>136.2162957688581</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q36" t="n">
         <v>132.9166530353911</v>
@@ -33982,7 +33982,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>201.213196744658</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
         <v>270.815853777682</v>
@@ -33991,7 +33991,7 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q39" t="n">
         <v>132.9166530353911</v>
@@ -34228,10 +34228,10 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.29686991973654</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R42" t="n">
         <v>64.64981240959996</v>
@@ -34459,7 +34459,7 @@
         <v>263.8329798603128</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776821</v>
+        <v>208.1960706620271</v>
       </c>
       <c r="O45" t="n">
         <v>247.7435980350076</v>
@@ -34471,7 +34471,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293944835</v>
+        <v>64.64981240959997</v>
       </c>
       <c r="S45" t="n">
         <v>19.34105365602258</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>15.29662563687356</v>
+        <v>37.05102592411131</v>
       </c>
       <c r="M9" t="n">
         <v>17.85044062301152</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.13331336509094</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829307</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M10" t="n">
         <v>9.258389161154682</v>
@@ -35345,13 +35345,13 @@
         <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752736</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.392270460025117</v>
+        <v>38.39134521367464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35573,19 +35573,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>307.6416050279839</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>198.8376634256977</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811321</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>194.3982176018703</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
         <v>575.5128433954892</v>
@@ -35825,10 +35825,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>227.2024143463627</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
@@ -35971,19 +35971,19 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108062</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36044,28 +36044,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>305.9788645463482</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>139.7481869072822</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>354.0442924930895</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>576.9206257840668</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966228</v>
+        <v>74.61514823966229</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K23" t="n">
         <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
         <v>347.2509570157229</v>
@@ -36375,7 +36375,7 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q23" t="n">
         <v>210.1590056992513</v>
@@ -36436,13 +36436,13 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>35.7569906280012</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K24" t="n">
         <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
         <v>263.8329798603128</v>
@@ -36457,7 +36457,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R24" t="n">
         <v>64.64981240959992</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K25" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M25" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106521</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082464</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O25" t="n">
-        <v>355.1759712278551</v>
+        <v>330.221565401534</v>
       </c>
       <c r="P25" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R25" t="n">
         <v>18.04791108854246</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966229</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J26" t="n">
         <v>165.1744548387385</v>
@@ -36600,19 +36600,19 @@
         <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562189</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321091</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q26" t="n">
         <v>210.1590056992513</v>
@@ -36673,19 +36673,19 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603128</v>
+        <v>201.2131967446581</v>
       </c>
       <c r="N27" t="n">
-        <v>208.1960706620273</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
         <v>247.7435980350076</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.1726538001471</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K28" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M28" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106518</v>
       </c>
       <c r="N28" t="n">
-        <v>363.8996481898064</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O28" t="n">
-        <v>547.2975691543368</v>
+        <v>547.297569154337</v>
       </c>
       <c r="P28" t="n">
-        <v>456.5978726797225</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>242.9903706058367</v>
+        <v>191.0026716398406</v>
       </c>
       <c r="R28" t="n">
         <v>18.04791108854246</v>
@@ -36831,7 +36831,7 @@
         <v>74.61514823966229</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K29" t="n">
         <v>247.553690742935</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365586</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K30" t="n">
-        <v>141.3723877588578</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M30" t="n">
         <v>263.8329798603128</v>
       </c>
       <c r="N30" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O30" t="n">
         <v>247.7435980350076</v>
@@ -36931,7 +36931,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R30" t="n">
         <v>64.64981240959992</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>149.1726538001471</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K31" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
-        <v>150.6892375696505</v>
+        <v>448.2519426041495</v>
       </c>
       <c r="M31" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N31" t="n">
         <v>580.313085903847</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P31" t="n">
         <v>456.5978726797225</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R31" t="n">
         <v>18.04791108854246</v>
@@ -37068,16 +37068,16 @@
         <v>74.61514823966229</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
         <v>247.553690742935</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M32" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N32" t="n">
         <v>347.2509570157229</v>
@@ -37086,7 +37086,7 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q32" t="n">
         <v>210.1590056992513</v>
@@ -37156,10 +37156,10 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>201.213196744658</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O33" t="n">
         <v>247.7435980350076</v>
@@ -37168,7 +37168,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959992</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>149.1726538001471</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K34" t="n">
-        <v>101.4223336626499</v>
+        <v>274.2887556713457</v>
       </c>
       <c r="L34" t="n">
-        <v>129.785668600859</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M34" t="n">
-        <v>600.9659086106521</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O34" t="n">
-        <v>144.2928055718339</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P34" t="n">
         <v>456.5978726797225</v>
@@ -37305,7 +37305,7 @@
         <v>74.61514823966229</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
         <v>247.553690742935</v>
@@ -37384,7 +37384,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365589</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498899</v>
@@ -37399,10 +37399,10 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350076</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P36" t="n">
-        <v>136.2162957688581</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q36" t="n">
         <v>132.9166530353912</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.1726538001471</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K37" t="n">
-        <v>378.9561261587464</v>
+        <v>378.9561261587465</v>
       </c>
       <c r="L37" t="n">
-        <v>552.2198926089004</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M37" t="n">
-        <v>136.8407902460933</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N37" t="n">
-        <v>365.3737567330593</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030425</v>
+        <v>475.1219969134786</v>
       </c>
       <c r="P37" t="n">
-        <v>456.5978726797225</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R37" t="n">
         <v>18.04791108854246</v>
@@ -37545,13 +37545,13 @@
         <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429353</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M38" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N38" t="n">
         <v>347.2509570157229</v>
@@ -37621,7 +37621,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365589</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498899</v>
@@ -37630,16 +37630,16 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>201.213196744658</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
         <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q39" t="n">
         <v>132.9166530353912</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106642</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K40" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L40" t="n">
-        <v>552.2198926089004</v>
+        <v>448.2519426041491</v>
       </c>
       <c r="M40" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082464</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O40" t="n">
-        <v>442.6301986669359</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P40" t="n">
         <v>456.5978726797225</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R40" t="n">
         <v>18.04791108854246</v>
@@ -37876,10 +37876,10 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.29686991973654</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R42" t="n">
         <v>64.64981240959992</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>149.1726538001471</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K43" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
-        <v>552.2198926089004</v>
+        <v>335.1438888560978</v>
       </c>
       <c r="M43" t="n">
-        <v>600.9659086106519</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082464</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>224.2594889399768</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R43" t="n">
         <v>18.04791108854246</v>
@@ -38107,7 +38107,7 @@
         <v>263.8329798603129</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776822</v>
+        <v>208.1960706620271</v>
       </c>
       <c r="O45" t="n">
         <v>247.7435980350076</v>
@@ -38119,7 +38119,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293944835</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.1726538001471</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K46" t="n">
-        <v>146.617742419001</v>
+        <v>378.9561261587465</v>
       </c>
       <c r="L46" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M46" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
         <v>133.5870221082464</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P46" t="n">
-        <v>456.5978726797225</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.9903706058367</v>
+        <v>138.3230001184365</v>
       </c>
       <c r="R46" t="n">
         <v>18.04791108854247</v>
